--- a/src/predicciones/xgboost/producto_253.xlsx
+++ b/src/predicciones/xgboost/producto_253.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,2009 +386,2759 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B250"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44933</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>1.717727303504944</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44934</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
         <v>1.439074754714966</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44936</v>
       </c>
       <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <v>2.004172801971436</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>2</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44937</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
         <v>2.309607267379761</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44940</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
         <v>1.644961714744568</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>2</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44941</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>2.1975257396698</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44942</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>1.672317981719971</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>3</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44944</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>2.407349824905396</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44945</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>1.404858827590942</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44946</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1.69829797744751</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>3</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44947</v>
       </c>
       <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
         <v>2.12964916229248</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>3</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44949</v>
       </c>
       <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
         <v>2.463846921920776</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>2</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44950</v>
       </c>
       <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>2.67728853225708</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44951</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>2.773492813110352</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>3</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44952</v>
       </c>
       <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
         <v>2.648852825164795</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>2</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44955</v>
       </c>
       <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
         <v>1.612748265266418</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>1</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44956</v>
       </c>
       <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
         <v>2.14413857460022</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>3</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44958</v>
       </c>
       <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
         <v>2.239908695220947</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44960</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>1.6444411277771</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>3</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44963</v>
       </c>
       <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
         <v>1.412506818771362</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>1</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44965</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
         <v>2.358352422714233</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>2</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44966</v>
       </c>
       <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
         <v>2.642971754074097</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>44967</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>1.848225712776184</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>3</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>44968</v>
       </c>
       <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>1.318923950195312</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>1</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>44971</v>
       </c>
       <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
         <v>2.205011129379272</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>2</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>44972</v>
       </c>
       <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>1.969395041465759</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>3</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>44973</v>
       </c>
       <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>1.31314492225647</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>2</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>44974</v>
       </c>
       <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
         <v>2.3463454246521</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1</v>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>44975</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>2.517435073852539</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>44978</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>2.598934173583984</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1</v>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>44979</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>0.9058317542076111</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>2</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>44981</v>
       </c>
       <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
         <v>1.337153911590576</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>2</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>44982</v>
       </c>
       <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
         <v>1.651806950569153</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>2</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>44984</v>
       </c>
       <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>1.760208487510681</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>2</v>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>44986</v>
       </c>
       <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
         <v>2.582703351974487</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>44988</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>2.230082511901855</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>2</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>44990</v>
       </c>
       <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
         <v>2.266256332397461</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>3</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>44991</v>
       </c>
       <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
         <v>1.942582368850708</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>2</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>44992</v>
       </c>
       <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
         <v>1.801022529602051</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>3</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>44996</v>
       </c>
       <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41">
         <v>1.446231961250305</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>1</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>44998</v>
       </c>
       <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
         <v>1.405800938606262</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>2</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45000</v>
       </c>
       <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
         <v>1.647426128387451</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>2</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45003</v>
       </c>
       <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
         <v>1.480652689933777</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45004</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>1.63316547870636</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45005</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>1.70886504650116</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45006</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>1.206969857215881</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>3</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45007</v>
       </c>
       <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
         <v>2.046759366989136</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>2</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45008</v>
       </c>
       <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
         <v>1.486257195472717</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45009</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>2.352872848510742</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>3</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45010</v>
       </c>
       <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
         <v>2.118239402770996</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>1</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45011</v>
       </c>
       <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
         <v>1.914433121681213</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45012</v>
       </c>
       <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>2.272698640823364</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>1</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45015</v>
       </c>
       <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
         <v>1.265184164047241</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>2</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45017</v>
       </c>
       <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55">
         <v>1.28235924243927</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>2</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45018</v>
       </c>
       <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
         <v>1.153118252754211</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>2</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45019</v>
       </c>
       <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
         <v>2.102739095687866</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>2</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45022</v>
       </c>
       <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
         <v>1.877121448516846</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45025</v>
       </c>
       <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>1.487398266792297</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>1</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45026</v>
       </c>
       <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
         <v>1.223114490509033</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>2</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45027</v>
       </c>
       <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
         <v>1.84916365146637</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45028</v>
       </c>
       <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>0.9562399983406067</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>2</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45030</v>
       </c>
       <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63">
         <v>1.291952133178711</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>1</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45031</v>
       </c>
       <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
         <v>1.329162240028381</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>1</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45032</v>
       </c>
       <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>1.608958721160889</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>3</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45034</v>
       </c>
       <c r="B66">
+        <v>3</v>
+      </c>
+      <c r="C66">
         <v>1.480472326278687</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>2</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45035</v>
       </c>
       <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
         <v>1.178910136222839</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45037</v>
       </c>
       <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>1.786356449127197</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45038</v>
       </c>
       <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>1.468120813369751</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>2</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45039</v>
       </c>
       <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
         <v>1.227408528327942</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>2</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45040</v>
       </c>
       <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
         <v>1.461318612098694</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>2</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45041</v>
       </c>
       <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
         <v>1.207573890686035</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>2</v>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45044</v>
       </c>
       <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
         <v>1.321151971817017</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>2</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45045</v>
       </c>
       <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
         <v>0.6868956089019775</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>1</v>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45048</v>
       </c>
       <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75">
         <v>1.131990790367126</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>3</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45050</v>
       </c>
       <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
         <v>1.458670496940613</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>1</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45052</v>
       </c>
       <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
         <v>1.298182010650635</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45053</v>
       </c>
       <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>1.925686478614807</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>1</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45054</v>
       </c>
       <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>2.984731435775757</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>3</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45055</v>
       </c>
       <c r="B80">
+        <v>3</v>
+      </c>
+      <c r="C80">
         <v>2.199630260467529</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>2</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45057</v>
       </c>
       <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
         <v>0.94644695520401</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>2</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45060</v>
       </c>
       <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
         <v>1.017846345901489</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>1</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45061</v>
       </c>
       <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>1.163781881332397</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>1</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45063</v>
       </c>
       <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>1.160640239715576</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>1</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45064</v>
       </c>
       <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
         <v>0.9501661062240601</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>1</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45068</v>
       </c>
       <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
         <v>1.384620785713196</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>1</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45069</v>
       </c>
       <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>1.400561451911926</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>1</v>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45079</v>
       </c>
       <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>1.678869128227234</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>3</v>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45080</v>
       </c>
       <c r="B89">
+        <v>3</v>
+      </c>
+      <c r="C89">
         <v>2.147900819778442</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>2</v>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45083</v>
       </c>
       <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
         <v>1.768041610717773</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>2</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45084</v>
       </c>
       <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
         <v>1.666075825691223</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>3</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45085</v>
       </c>
       <c r="B92">
+        <v>3</v>
+      </c>
+      <c r="C92">
         <v>1.861130714416504</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>1</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45086</v>
       </c>
       <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
         <v>1.828874468803406</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>1</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45089</v>
       </c>
       <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
         <v>2.66879415512085</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>2</v>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45092</v>
       </c>
       <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
         <v>1.628578066825867</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>3</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45093</v>
       </c>
       <c r="B96">
+        <v>3</v>
+      </c>
+      <c r="C96">
         <v>1.247200131416321</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>1</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45094</v>
       </c>
       <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
         <v>1.736091494560242</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>2</v>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45095</v>
       </c>
       <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
         <v>2.029005289077759</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>3</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45099</v>
       </c>
       <c r="B99">
+        <v>3</v>
+      </c>
+      <c r="C99">
         <v>2.065938472747803</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>2</v>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45100</v>
       </c>
       <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
         <v>1.619902849197388</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45102</v>
       </c>
       <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>1.358625411987305</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>3</v>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45104</v>
       </c>
       <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
         <v>2.762937784194946</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>3</v>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45106</v>
       </c>
       <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
         <v>1.853145360946655</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>3</v>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45108</v>
       </c>
       <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
         <v>2.166079759597778</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>1</v>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45111</v>
       </c>
       <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
         <v>2.346937417984009</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>2</v>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45112</v>
       </c>
       <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
         <v>2.448067426681519</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>1</v>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45113</v>
       </c>
       <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
         <v>1.532809257507324</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>1</v>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45114</v>
       </c>
       <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
         <v>1.571111679077148</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>1</v>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45115</v>
       </c>
       <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
         <v>1.55246102809906</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>2</v>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45116</v>
       </c>
       <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
         <v>1.814273118972778</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>2</v>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45118</v>
       </c>
       <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
         <v>2.234992742538452</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>2</v>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45119</v>
       </c>
       <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
         <v>2.324001312255859</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>3</v>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45120</v>
       </c>
       <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="C113">
         <v>2.333914995193481</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>3</v>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45121</v>
       </c>
       <c r="B114">
+        <v>3</v>
+      </c>
+      <c r="C114">
         <v>1.813713073730469</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>2</v>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45122</v>
       </c>
       <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
         <v>1.606183290481567</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>3</v>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45124</v>
       </c>
       <c r="B116">
+        <v>3</v>
+      </c>
+      <c r="C116">
         <v>2.141579866409302</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>1</v>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45125</v>
       </c>
       <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
         <v>2.407542705535889</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
-        <v>1</v>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45126</v>
       </c>
       <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="C118">
         <v>1.824571490287781</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>1</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45127</v>
       </c>
       <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
         <v>0.942800760269165</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>2</v>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45128</v>
       </c>
       <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
         <v>1.326375961303711</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
-        <v>3</v>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45129</v>
       </c>
       <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
         <v>1.041481971740723</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
-        <v>1</v>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45131</v>
       </c>
       <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
         <v>2.612560033798218</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
-        <v>1</v>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45132</v>
       </c>
       <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123">
         <v>1.613323330879211</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
-        <v>1</v>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45135</v>
       </c>
       <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
         <v>1.769165873527527</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>2</v>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45140</v>
       </c>
       <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125">
         <v>1.539197206497192</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
-        <v>1</v>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45142</v>
       </c>
       <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
         <v>1.08619213104248</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
-        <v>1</v>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45143</v>
       </c>
       <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
         <v>2.24682092666626</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
-        <v>1</v>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45144</v>
       </c>
       <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
         <v>2.490453720092773</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>3</v>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45148</v>
       </c>
       <c r="B129">
+        <v>3</v>
+      </c>
+      <c r="C129">
         <v>2.11173677444458</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>1</v>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45149</v>
       </c>
       <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
         <v>1.124906897544861</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>3</v>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45150</v>
       </c>
       <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="C131">
         <v>1.641607403755188</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>1</v>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45151</v>
       </c>
       <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
         <v>1.328092575073242</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
-        <v>1</v>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45156</v>
       </c>
       <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
         <v>1.547414660453796</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134">
-        <v>1</v>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45157</v>
       </c>
       <c r="B134">
+        <v>1</v>
+      </c>
+      <c r="C134">
         <v>2.132788181304932</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135">
-        <v>1</v>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45158</v>
       </c>
       <c r="B135">
+        <v>1</v>
+      </c>
+      <c r="C135">
         <v>2.618042945861816</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136">
-        <v>2</v>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45162</v>
       </c>
       <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
         <v>2.426597356796265</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137">
-        <v>2</v>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45163</v>
       </c>
       <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
         <v>0.808461606502533</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138">
-        <v>3</v>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45164</v>
       </c>
       <c r="B138">
+        <v>3</v>
+      </c>
+      <c r="C138">
         <v>1.869254946708679</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139">
-        <v>2</v>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45166</v>
       </c>
       <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
         <v>2.179229021072388</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140">
-        <v>2</v>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45167</v>
       </c>
       <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
         <v>1.490940809249878</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
-      <c r="A141">
-        <v>3</v>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45168</v>
       </c>
       <c r="B141">
+        <v>3</v>
+      </c>
+      <c r="C141">
         <v>2.395733118057251</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
-      <c r="A142">
-        <v>3</v>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45171</v>
       </c>
       <c r="B142">
+        <v>3</v>
+      </c>
+      <c r="C142">
         <v>1.79665195941925</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143">
-        <v>3</v>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45172</v>
       </c>
       <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143">
         <v>1.975509762763977</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
-      <c r="A144">
-        <v>1</v>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45173</v>
       </c>
       <c r="B144">
+        <v>1</v>
+      </c>
+      <c r="C144">
         <v>1.682052850723267</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145">
-        <v>3</v>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45174</v>
       </c>
       <c r="B145">
+        <v>3</v>
+      </c>
+      <c r="C145">
         <v>1.813499450683594</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146">
-        <v>1</v>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45176</v>
       </c>
       <c r="B146">
+        <v>1</v>
+      </c>
+      <c r="C146">
         <v>1.483605742454529</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147">
-        <v>1</v>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45178</v>
       </c>
       <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
         <v>1.91925036907196</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148">
-        <v>1</v>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45179</v>
       </c>
       <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148">
         <v>1.576767086982727</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149">
-        <v>1</v>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45181</v>
       </c>
       <c r="B149">
+        <v>1</v>
+      </c>
+      <c r="C149">
         <v>1.479774713516235</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150">
-        <v>2</v>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45182</v>
       </c>
       <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
         <v>1.768396854400635</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151">
-        <v>2</v>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45183</v>
       </c>
       <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
         <v>1.104449033737183</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152">
-        <v>3</v>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45190</v>
       </c>
       <c r="B152">
+        <v>3</v>
+      </c>
+      <c r="C152">
         <v>1.497313261032104</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153">
-        <v>1</v>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45191</v>
       </c>
       <c r="B153">
+        <v>1</v>
+      </c>
+      <c r="C153">
         <v>1.523472428321838</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154">
-        <v>3</v>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45192</v>
       </c>
       <c r="B154">
+        <v>3</v>
+      </c>
+      <c r="C154">
         <v>2.194197416305542</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155">
-        <v>3</v>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45193</v>
       </c>
       <c r="B155">
+        <v>3</v>
+      </c>
+      <c r="C155">
         <v>1.964944243431091</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156">
-        <v>1</v>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45195</v>
       </c>
       <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
         <v>2.003386735916138</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157">
-        <v>3</v>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45196</v>
       </c>
       <c r="B157">
+        <v>3</v>
+      </c>
+      <c r="C157">
         <v>2.282932996749878</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158">
-        <v>1</v>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45197</v>
       </c>
       <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
         <v>1.835685729980469</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159">
-        <v>3</v>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45198</v>
       </c>
       <c r="B159">
+        <v>3</v>
+      </c>
+      <c r="C159">
         <v>2.294354915618896</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160">
-        <v>2</v>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45200</v>
       </c>
       <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
         <v>1.73888099193573</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161">
-        <v>1</v>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45201</v>
       </c>
       <c r="B161">
+        <v>1</v>
+      </c>
+      <c r="C161">
         <v>1.538387179374695</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162">
-        <v>1</v>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45204</v>
       </c>
       <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
         <v>2.36299729347229</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163">
-        <v>1</v>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45206</v>
       </c>
       <c r="B163">
+        <v>1</v>
+      </c>
+      <c r="C163">
         <v>2.292500019073486</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164">
-        <v>3</v>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
+        <v>45207</v>
       </c>
       <c r="B164">
+        <v>3</v>
+      </c>
+      <c r="C164">
         <v>2.288451194763184</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165">
-        <v>1</v>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45209</v>
       </c>
       <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="C165">
         <v>0.7214965224266052</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166">
-        <v>3</v>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45210</v>
       </c>
       <c r="B166">
+        <v>3</v>
+      </c>
+      <c r="C166">
         <v>1.721184611320496</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167">
-        <v>2</v>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45212</v>
       </c>
       <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
         <v>1.574008226394653</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168">
-        <v>2</v>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45213</v>
       </c>
       <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
         <v>1.246688365936279</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169">
-        <v>2</v>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45215</v>
       </c>
       <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
         <v>2.106014728546143</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170">
-        <v>3</v>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45217</v>
       </c>
       <c r="B170">
+        <v>3</v>
+      </c>
+      <c r="C170">
         <v>1.863258600234985</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171">
-        <v>2</v>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45218</v>
       </c>
       <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
         <v>2.154462575912476</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172">
-        <v>1</v>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45220</v>
       </c>
       <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
         <v>0.97202068567276</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173">
-        <v>1</v>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45224</v>
       </c>
       <c r="B173">
+        <v>1</v>
+      </c>
+      <c r="C173">
         <v>1.994451403617859</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
-      <c r="A174">
-        <v>2</v>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45225</v>
       </c>
       <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
         <v>1.057358145713806</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
-      <c r="A175">
-        <v>3</v>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45227</v>
       </c>
       <c r="B175">
+        <v>3</v>
+      </c>
+      <c r="C175">
         <v>1.123059749603271</v>
       </c>
     </row>
-    <row r="176" spans="1:2">
-      <c r="A176">
-        <v>3</v>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45229</v>
       </c>
       <c r="B176">
+        <v>3</v>
+      </c>
+      <c r="C176">
         <v>2.197221517562866</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177">
-        <v>1</v>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45234</v>
       </c>
       <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
         <v>1.997762084007263</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178">
-        <v>2</v>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45235</v>
       </c>
       <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
         <v>1.713083267211914</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179">
-        <v>3</v>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45237</v>
       </c>
       <c r="B179">
+        <v>3</v>
+      </c>
+      <c r="C179">
         <v>1.601716279983521</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180">
-        <v>1</v>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45239</v>
       </c>
       <c r="B180">
+        <v>1</v>
+      </c>
+      <c r="C180">
         <v>1.867040634155273</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181">
-        <v>2</v>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45241</v>
       </c>
       <c r="B181">
+        <v>2</v>
+      </c>
+      <c r="C181">
         <v>1.544280886650085</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182">
-        <v>2</v>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45242</v>
       </c>
       <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
         <v>1.749788880348206</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183">
-        <v>2</v>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45243</v>
       </c>
       <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
         <v>1.330131649971008</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184">
-        <v>2</v>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45244</v>
       </c>
       <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="C184">
         <v>1.586101055145264</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185">
-        <v>2</v>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45245</v>
       </c>
       <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
         <v>1.413663744926453</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186">
-        <v>1</v>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45250</v>
       </c>
       <c r="B186">
+        <v>1</v>
+      </c>
+      <c r="C186">
         <v>1.014796853065491</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187">
-        <v>1</v>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45251</v>
       </c>
       <c r="B187">
+        <v>1</v>
+      </c>
+      <c r="C187">
         <v>0.9675091505050659</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188">
-        <v>2</v>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45253</v>
       </c>
       <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
         <v>1.871607184410095</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189">
-        <v>2</v>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45258</v>
       </c>
       <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
         <v>2.355095148086548</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190">
-        <v>1</v>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45262</v>
       </c>
       <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
         <v>2.038947582244873</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191">
-        <v>3</v>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45263</v>
       </c>
       <c r="B191">
+        <v>3</v>
+      </c>
+      <c r="C191">
         <v>2.122742652893066</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192">
-        <v>3</v>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45264</v>
       </c>
       <c r="B192">
+        <v>3</v>
+      </c>
+      <c r="C192">
         <v>1.453429102897644</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193">
-        <v>2</v>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45265</v>
       </c>
       <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193">
         <v>1.935972452163696</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194">
-        <v>1</v>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45266</v>
       </c>
       <c r="B194">
+        <v>1</v>
+      </c>
+      <c r="C194">
         <v>1.99591064453125</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195">
-        <v>1</v>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45267</v>
       </c>
       <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
         <v>2.150597333908081</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196">
-        <v>1</v>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45269</v>
       </c>
       <c r="B196">
+        <v>1</v>
+      </c>
+      <c r="C196">
         <v>2.311064481735229</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197">
-        <v>3</v>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45270</v>
       </c>
       <c r="B197">
+        <v>3</v>
+      </c>
+      <c r="C197">
         <v>1.546606302261353</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198">
-        <v>3</v>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45273</v>
       </c>
       <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
         <v>1.598240852355957</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199">
-        <v>3</v>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45274</v>
       </c>
       <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
         <v>2.389104604721069</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200">
-        <v>1</v>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45275</v>
       </c>
       <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
         <v>2.219074964523315</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201">
-        <v>2</v>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45277</v>
       </c>
       <c r="B201">
+        <v>2</v>
+      </c>
+      <c r="C201">
         <v>2.179521560668945</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202">
-        <v>2</v>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45278</v>
       </c>
       <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
         <v>2.150016784667969</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203">
-        <v>2</v>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45279</v>
       </c>
       <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203">
         <v>1.147317290306091</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204">
-        <v>3</v>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45282</v>
       </c>
       <c r="B204">
+        <v>3</v>
+      </c>
+      <c r="C204">
         <v>2.061136484146118</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205">
-        <v>2</v>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45283</v>
       </c>
       <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
         <v>2.222299575805664</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206">
-        <v>1</v>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45284</v>
       </c>
       <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
         <v>2.243438005447388</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207">
-        <v>2</v>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45286</v>
       </c>
       <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
         <v>1.669880628585815</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208">
-        <v>1</v>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45288</v>
       </c>
       <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
         <v>1.522775769233704</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209">
-        <v>2</v>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45289</v>
       </c>
       <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
         <v>2.51269793510437</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210">
-        <v>3</v>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45290</v>
       </c>
       <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210">
         <v>1.856301069259644</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211">
-        <v>3</v>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45294</v>
       </c>
       <c r="B211">
+        <v>3</v>
+      </c>
+      <c r="C211">
         <v>2.467979907989502</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212">
-        <v>3</v>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45295</v>
       </c>
       <c r="B212">
+        <v>3</v>
+      </c>
+      <c r="C212">
         <v>1.793213725090027</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213">
-        <v>2</v>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45297</v>
       </c>
       <c r="B213">
+        <v>2</v>
+      </c>
+      <c r="C213">
         <v>1.690187811851501</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214">
-        <v>1</v>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45298</v>
       </c>
       <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
         <v>1.780085206031799</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215">
-        <v>2</v>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45299</v>
       </c>
       <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
         <v>2.726104974746704</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216">
-        <v>2</v>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45303</v>
       </c>
       <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
         <v>1.389867544174194</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217">
-        <v>2</v>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45304</v>
       </c>
       <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
         <v>0.9269841313362122</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218">
-        <v>2</v>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45306</v>
       </c>
       <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218">
         <v>2.044673919677734</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219">
-        <v>2</v>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45308</v>
       </c>
       <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
         <v>2.44571590423584</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220">
-        <v>2</v>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45309</v>
       </c>
       <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220">
         <v>1.637800216674805</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221">
-        <v>1</v>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45310</v>
       </c>
       <c r="B221">
+        <v>1</v>
+      </c>
+      <c r="C221">
         <v>1.186890602111816</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222">
-        <v>2</v>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45311</v>
       </c>
       <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222">
         <v>1.783882260322571</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223">
-        <v>1</v>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45312</v>
       </c>
       <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
         <v>1.366195321083069</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224">
-        <v>2</v>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45313</v>
       </c>
       <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224">
         <v>1.936452031135559</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225">
-        <v>3</v>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45315</v>
       </c>
       <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225">
         <v>2.908770322799683</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226">
-        <v>2</v>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45316</v>
       </c>
       <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="C226">
         <v>1.576992630958557</v>
       </c>
     </row>
-    <row r="227" spans="1:2">
-      <c r="A227">
-        <v>2</v>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45317</v>
       </c>
       <c r="B227">
+        <v>2</v>
+      </c>
+      <c r="C227">
         <v>1.76918613910675</v>
       </c>
     </row>
-    <row r="228" spans="1:2">
-      <c r="A228">
-        <v>2</v>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45320</v>
       </c>
       <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
         <v>1.5385422706604</v>
       </c>
     </row>
-    <row r="229" spans="1:2">
-      <c r="A229">
-        <v>1</v>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45321</v>
       </c>
       <c r="B229">
+        <v>1</v>
+      </c>
+      <c r="C229">
         <v>1.934017419815063</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="A230">
-        <v>2</v>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45323</v>
       </c>
       <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
         <v>1.636629939079285</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="A231">
-        <v>1</v>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45325</v>
       </c>
       <c r="B231">
+        <v>1</v>
+      </c>
+      <c r="C231">
         <v>1.055240154266357</v>
       </c>
     </row>
-    <row r="232" spans="1:2">
-      <c r="A232">
-        <v>2</v>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45326</v>
       </c>
       <c r="B232">
+        <v>2</v>
+      </c>
+      <c r="C232">
         <v>2.452897310256958</v>
       </c>
     </row>
-    <row r="233" spans="1:2">
-      <c r="A233">
-        <v>2</v>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45328</v>
       </c>
       <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
         <v>2.574294805526733</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234">
-        <v>3</v>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45330</v>
       </c>
       <c r="B234">
+        <v>3</v>
+      </c>
+      <c r="C234">
         <v>1.715542078018188</v>
       </c>
     </row>
-    <row r="235" spans="1:2">
-      <c r="A235">
-        <v>2</v>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45331</v>
       </c>
       <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235">
         <v>1.342241168022156</v>
       </c>
     </row>
-    <row r="236" spans="1:2">
-      <c r="A236">
-        <v>2</v>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45332</v>
       </c>
       <c r="B236">
+        <v>2</v>
+      </c>
+      <c r="C236">
         <v>1.416615724563599</v>
       </c>
     </row>
-    <row r="237" spans="1:2">
-      <c r="A237">
-        <v>3</v>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45334</v>
       </c>
       <c r="B237">
+        <v>3</v>
+      </c>
+      <c r="C237">
         <v>1.880764126777649</v>
       </c>
     </row>
-    <row r="238" spans="1:2">
-      <c r="A238">
-        <v>1</v>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45335</v>
       </c>
       <c r="B238">
+        <v>1</v>
+      </c>
+      <c r="C238">
         <v>1.426881790161133</v>
       </c>
     </row>
-    <row r="239" spans="1:2">
-      <c r="A239">
-        <v>3</v>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45337</v>
       </c>
       <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="C239">
         <v>2.469661951065063</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240">
-        <v>1</v>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45338</v>
       </c>
       <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
         <v>1.449758172035217</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241">
-        <v>1</v>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45339</v>
       </c>
       <c r="B241">
+        <v>1</v>
+      </c>
+      <c r="C241">
         <v>2.385170698165894</v>
       </c>
     </row>
-    <row r="242" spans="1:2">
-      <c r="A242">
-        <v>3</v>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45340</v>
       </c>
       <c r="B242">
+        <v>3</v>
+      </c>
+      <c r="C242">
         <v>2.639027118682861</v>
       </c>
     </row>
-    <row r="243" spans="1:2">
-      <c r="A243">
-        <v>1</v>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45341</v>
       </c>
       <c r="B243">
+        <v>1</v>
+      </c>
+      <c r="C243">
         <v>2.070999383926392</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244">
-        <v>2</v>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45345</v>
       </c>
       <c r="B244">
+        <v>2</v>
+      </c>
+      <c r="C244">
         <v>1.531542062759399</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245">
-        <v>3</v>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45347</v>
       </c>
       <c r="B245">
+        <v>3</v>
+      </c>
+      <c r="C245">
         <v>2.108502626419067</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246">
-        <v>3</v>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45349</v>
       </c>
       <c r="B246">
+        <v>3</v>
+      </c>
+      <c r="C246">
         <v>2.616596221923828</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247">
-        <v>2</v>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45350</v>
       </c>
       <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
         <v>2.524383306503296</v>
       </c>
     </row>
-    <row r="248" spans="1:2">
-      <c r="A248">
-        <v>1</v>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45352</v>
       </c>
       <c r="B248">
+        <v>1</v>
+      </c>
+      <c r="C248">
         <v>2.56633996963501</v>
       </c>
     </row>
-    <row r="249" spans="1:2">
-      <c r="A249">
-        <v>3</v>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45353</v>
       </c>
       <c r="B249">
+        <v>3</v>
+      </c>
+      <c r="C249">
         <v>1.969878792762756</v>
       </c>
     </row>
-    <row r="250" spans="1:2">
-      <c r="A250">
-        <v>1</v>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45354</v>
       </c>
       <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
         <v>2.308452367782593</v>
       </c>
     </row>
